--- a/Datasets/Fantasy Football 2015.xlsx
+++ b/Datasets/Fantasy Football 2015.xlsx
@@ -3117,10 +3117,10 @@
   <dimension ref="A1:AC144"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B25" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="B130" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="A35" sqref="A35:XFD35"/>
+      <selection pane="bottomRight" activeCell="A143" sqref="A143"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="13" outlineLevelCol="1" x14ac:dyDescent="0.3"/>
@@ -16220,8 +16220,8 @@
     </row>
   </sheetData>
   <autoFilter ref="A3:AC144">
-    <sortState ref="A4:AC145">
-      <sortCondition ref="A3:A145"/>
+    <sortState ref="A4:AC144">
+      <sortCondition ref="A3:A144"/>
     </sortState>
   </autoFilter>
   <mergeCells count="2">
